--- a/document/项目安排计划/工作进度计划.xlsx
+++ b/document/项目安排计划/工作进度计划.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EBD7DE-1560-8849-BFA2-0A77383F8AF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5919AF-0EAF-154E-BB8B-68B8D7DD1DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="4" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="1" r:id="rId1"/>
     <sheet name="工作计划" sheetId="2" r:id="rId2"/>
     <sheet name="进度甘特表" sheetId="3" r:id="rId3"/>
-    <sheet name="前端进度计划工作表" sheetId="4" r:id="rId4"/>
-    <sheet name="界面设计计划表" sheetId="5" r:id="rId5"/>
+    <sheet name="前端进度计划工作表-金晨" sheetId="4" r:id="rId4"/>
+    <sheet name="界面设计计划表-赵梓清" sheetId="5" r:id="rId5"/>
+    <sheet name="测试进度计划-卢茜君" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="210">
   <si>
     <t>基于区块链的安全数据共享系统工作计划概况</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -759,6 +760,164 @@
   <si>
     <t>用户手册编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试进度计划</t>
+  </si>
+  <si>
+    <t>项目团队</t>
+  </si>
+  <si>
+    <t>项目团队处理事项</t>
+  </si>
+  <si>
+    <t>测试进度安排</t>
+  </si>
+  <si>
+    <t>2019.08.26</t>
+  </si>
+  <si>
+    <t>测试经理：卢茜君</t>
+  </si>
+  <si>
+    <t>确定大致的测试时间及人员安排</t>
+  </si>
+  <si>
+    <t>需求评审</t>
+  </si>
+  <si>
+    <t>2019.8.27-2019.8.29</t>
+  </si>
+  <si>
+    <t>需求分析师：曹俊燚
+需求助理：赵梓清
+前端开发负责人：金晨
+后端架构师：侯添久
+后端开发人员：卢茜君</t>
+  </si>
+  <si>
+    <t>1、明确需求合理性：是否影响其他主要功能，是否违背用户体验。
+2、明确需求重要性
+3、明确需求紧急性，开发周期多长
+4、明确需求开发难度
+5、明确需求带来的开发、测试工作量</t>
+  </si>
+  <si>
+    <t>设计评审</t>
+  </si>
+  <si>
+    <t>美工总监：赵梓清
+系统架构师：侯添久
+后端开发人员：卢茜君
+后端开发人员：曹俊燚</t>
+  </si>
+  <si>
+    <t>1、评价设计是否符合需求和相关规范
+2、确定设计的薄弱环节并提出修改意见
+3、在可靠性和可实现性的基础上改进设计</t>
+  </si>
+  <si>
+    <t>阶段文档：测试进度计划表、需求规格说明书、概要设计说明书</t>
+  </si>
+  <si>
+    <t>测试计划</t>
+  </si>
+  <si>
+    <t>编写测试计划</t>
+  </si>
+  <si>
+    <t>2019.08.30</t>
+  </si>
+  <si>
+    <t>1、明确测试项
+2、明确测试方法
+3、明确测试通过准则
+4、明确项目组成员及职责
+5、明确测试环境和测试工具</t>
+  </si>
+  <si>
+    <t>编写测试方案</t>
+  </si>
+  <si>
+    <t>2019.08.31-2019.09.01</t>
+  </si>
+  <si>
+    <t>测试经理：卢茜君
+测试人员</t>
+  </si>
+  <si>
+    <t>1、明确测试开展方式
+4、编写完整的测试用例
+5、明确测试环境和测试工具</t>
+  </si>
+  <si>
+    <t>阶段文档：测试计划、测试方案</t>
+  </si>
+  <si>
+    <t>代码评审</t>
+  </si>
+  <si>
+    <t>2019.08.30-2019.09.06</t>
+  </si>
+  <si>
+    <t>开发人员</t>
+  </si>
+  <si>
+    <t>开发人员对团队代码进行检查</t>
+  </si>
+  <si>
+    <t>2019.09.02</t>
+  </si>
+  <si>
+    <t>编码负责人：侯添久
+测试负责人：卢茜君</t>
+  </si>
+  <si>
+    <t>搭建测试环境</t>
+  </si>
+  <si>
+    <t>单元测试</t>
+  </si>
+  <si>
+    <t>2019.09.03-2019.09.05</t>
+  </si>
+  <si>
+    <t>测试负责人：卢茜君
+测试人员</t>
+  </si>
+  <si>
+    <t>1、对于各功能模块进行单元测对于各功能模块进行单元测试
+2、记录测试结果及缺陷情况
+3、将缺陷反馈到负责人处并由负责人安排开发人员修复</t>
+  </si>
+  <si>
+    <t>集成测试</t>
+  </si>
+  <si>
+    <t>1、组合已进行过单元测试的模块进行集成测试
+2、记录测试结果及缺陷情况
+3、将缺陷反馈到负责人处并由负责人安排开发人员修复</t>
+  </si>
+  <si>
+    <t>系统测试</t>
+  </si>
+  <si>
+    <t>2019.09.06-2019.09.07</t>
+  </si>
+  <si>
+    <t>项目经理
+需求经理
+测试经理
+开发人员
+测试人员</t>
+  </si>
+  <si>
+    <t>1、在仿真环境下对系统及依赖环境进行测试
+2、记录测试结果及缺陷情况
+3、将缺陷反馈到负责人处并由负责人安排开发人员修复</t>
+  </si>
+  <si>
+    <t>阶段文档：测试报告、缺陷报告</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1762,8 +1921,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1775,10 +1949,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1843,18 +2014,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1899,6 +2058,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1924,95 +2101,143 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2369,7 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888914A-0887-C84A-ABDA-E01C184CA597}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="67" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
@@ -2385,17 +2610,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -2427,79 +2652,79 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="41" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="92" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="89"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="1:9" ht="41" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="89"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="90"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="68" t="s">
@@ -2511,10 +2736,10 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="65" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -2526,41 +2751,41 @@
       <c r="H8" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="73" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="94"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="65"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="94"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="69"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="7" t="s">
         <v>85</v>
       </c>
@@ -2569,19 +2794,19 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="94"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="69"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="7" t="s">
         <v>86</v>
       </c>
@@ -2590,38 +2815,38 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="1:9" ht="136">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="64" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="64" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="70" t="s">
         <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -2632,17 +2857,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="65" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="69"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="7" t="s">
         <v>87</v>
       </c>
@@ -2651,15 +2876,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="69"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="7" t="s">
         <v>88</v>
       </c>
@@ -2668,20 +2893,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="68">
-      <c r="A16" s="69"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69" t="s">
+      <c r="G16" s="64"/>
+      <c r="H16" s="64" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -2689,53 +2914,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="69"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="102">
-      <c r="A18" s="69"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="69"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="69"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="7" t="s">
         <v>66</v>
       </c>
@@ -2744,19 +2969,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="34">
-      <c r="A20" s="69"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="69"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2765,17 +2990,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" ht="34">
       <c r="A22" s="7" t="s">
@@ -2787,19 +3012,19 @@
       <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="64" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="69" t="s">
+      <c r="G22" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="64" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -2813,32 +3038,32 @@
       <c r="C23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="64" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2847,17 +3072,17 @@
       <c r="C25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="64" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69" t="s">
+      <c r="G25" s="64"/>
+      <c r="H25" s="64" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -2865,65 +3090,65 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1">
-      <c r="A26" s="69"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69" t="s">
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="65" t="s">
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="69"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="65"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="70"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="65"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="70"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="64" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2932,44 +3157,75 @@
       <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="64" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="69"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="69" t="s">
+      <c r="I30" s="64" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="69"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="69"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="69"/>
+      <c r="I31" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
@@ -2986,37 +3242,6 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A13:A20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3650,7 +3875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96A95C4-DA44-6A4D-ADF6-4DC13FEF3A74}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="136" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="136" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3662,12 +3887,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1">
       <c r="A2" s="49" t="s">
@@ -3684,7 +3909,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.75" customHeight="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="113" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="52" t="s">
@@ -3693,22 +3918,22 @@
       <c r="C3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="119" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.75" customHeight="1">
-      <c r="A4" s="119"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="53" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="114"/>
+      <c r="D4" s="120"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="120"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="54" t="s">
         <v>50</v>
       </c>
@@ -3720,15 +3945,15 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
     </row>
     <row r="7" spans="1:4" ht="36">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="113" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="56" t="s">
@@ -3742,7 +3967,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="24">
-      <c r="A8" s="119"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="58" t="s">
         <v>141</v>
       </c>
@@ -3754,7 +3979,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="119"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="58" t="s">
         <v>144</v>
       </c>
@@ -3766,7 +3991,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="24">
-      <c r="A10" s="119"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="58" t="s">
         <v>147</v>
       </c>
@@ -3778,7 +4003,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="24">
-      <c r="A11" s="120"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="60" t="s">
         <v>150</v>
       </c>
@@ -3790,12 +4015,12 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="61" t="s">
@@ -3812,12 +4037,12 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3838,217 +4063,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDF951B-D4BC-DF45-B0A3-BDA166F00BD1}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="126" t="s">
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="128"/>
+      <c r="H1" s="136"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="133" t="s">
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="134"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="128"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="139" t="s">
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="141">
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="131">
         <v>43705</v>
       </c>
-      <c r="H4" s="142"/>
+      <c r="H4" s="147"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="139" t="s">
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="141">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="131">
         <v>43706</v>
       </c>
-      <c r="H6" s="141"/>
+      <c r="H6" s="131"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="138" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="141" t="s">
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="141"/>
+      <c r="H9" s="131"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="138" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138" t="s">
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="138"/>
+      <c r="H12" s="128"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="138" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="145">
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129">
         <v>43716</v>
       </c>
-      <c r="H14" s="138"/>
+      <c r="H14" s="128"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="146"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="138" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="145">
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="129">
         <v>43718</v>
       </c>
-      <c r="H15" s="138"/>
+      <c r="H15" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="C9:F11"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:H13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4059,6 +4273,257 @@
     <mergeCell ref="G4:H5"/>
     <mergeCell ref="C6:F8"/>
     <mergeCell ref="G6:H8"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="C9:F11"/>
+    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A6A213-6046-FB40-BF68-BE1C2BBB9950}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="151" customFormat="1" ht="24">
+      <c r="A1" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
+    </row>
+    <row r="2" spans="1:5" s="151" customFormat="1">
+      <c r="A2" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="152" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="152" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="151" customFormat="1">
+      <c r="A3" s="153" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="154" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="155" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="155" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="158" customFormat="1" ht="102">
+      <c r="A4" s="153"/>
+      <c r="B4" s="154" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="153" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="156" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="157" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="161" customFormat="1" ht="68">
+      <c r="A5" s="153"/>
+      <c r="B5" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="153"/>
+      <c r="D5" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="160" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="151" customFormat="1">
+      <c r="A6" s="162" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+    </row>
+    <row r="7" spans="1:5" ht="80">
+      <c r="A7" s="163" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="159" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="164" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51">
+      <c r="A8" s="163"/>
+      <c r="B8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="165" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="162" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="166" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="159" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34">
+      <c r="A11" s="163"/>
+      <c r="B11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="167" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="85">
+      <c r="A12" s="163"/>
+      <c r="B12" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="156" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="167" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68">
+      <c r="A13" s="163"/>
+      <c r="B13" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="156" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="167" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="85">
+      <c r="A14" s="163"/>
+      <c r="B14" s="156" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="156" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="167" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="168" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/项目安排计划/工作进度计划.xlsx
+++ b/document/项目安排计划/工作进度计划.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htj\Desktop\BlockChain\document\项目安排计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5919AF-0EAF-154E-BB8B-68B8D7DD1DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BA8F6E-CFC6-402D-B38C-12D8B49C7CD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14520" activeTab="5" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="1" r:id="rId1"/>
     <sheet name="工作计划" sheetId="2" r:id="rId2"/>
     <sheet name="进度甘特表" sheetId="3" r:id="rId3"/>
-    <sheet name="前端进度计划工作表-金晨" sheetId="4" r:id="rId4"/>
-    <sheet name="界面设计计划表-赵梓清" sheetId="5" r:id="rId5"/>
-    <sheet name="测试进度计划-卢茜君" sheetId="6" r:id="rId6"/>
+    <sheet name="前端进度计划工作表" sheetId="4" r:id="rId4"/>
+    <sheet name="界面设计计划表" sheetId="5" r:id="rId5"/>
+    <sheet name="后端开发计划表" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="180">
   <si>
     <t>基于区块链的安全数据共享系统工作计划概况</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -762,169 +762,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试进度计划</t>
-  </si>
-  <si>
-    <t>项目团队</t>
+    <t>任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目团队处理事项</t>
-  </si>
-  <si>
-    <t>测试进度安排</t>
-  </si>
-  <si>
-    <t>2019.08.26</t>
-  </si>
-  <si>
-    <t>测试经理：卢茜君</t>
-  </si>
-  <si>
-    <t>确定大致的测试时间及人员安排</t>
-  </si>
-  <si>
-    <t>需求评审</t>
-  </si>
-  <si>
-    <t>2019.8.27-2019.8.29</t>
-  </si>
-  <si>
-    <t>需求分析师：曹俊燚
-需求助理：赵梓清
-前端开发负责人：金晨
-后端架构师：侯添久
-后端开发人员：卢茜君</t>
-  </si>
-  <si>
-    <t>1、明确需求合理性：是否影响其他主要功能，是否违背用户体验。
-2、明确需求重要性
-3、明确需求紧急性，开发周期多长
-4、明确需求开发难度
-5、明确需求带来的开发、测试工作量</t>
-  </si>
-  <si>
-    <t>设计评审</t>
-  </si>
-  <si>
-    <t>美工总监：赵梓清
-系统架构师：侯添久
-后端开发人员：卢茜君
-后端开发人员：曹俊燚</t>
-  </si>
-  <si>
-    <t>1、评价设计是否符合需求和相关规范
-2、确定设计的薄弱环节并提出修改意见
-3、在可靠性和可实现性的基础上改进设计</t>
-  </si>
-  <si>
-    <t>阶段文档：测试进度计划表、需求规格说明书、概要设计说明书</t>
-  </si>
-  <si>
-    <t>测试计划</t>
-  </si>
-  <si>
-    <t>编写测试计划</t>
-  </si>
-  <si>
-    <t>2019.08.30</t>
-  </si>
-  <si>
-    <t>1、明确测试项
-2、明确测试方法
-3、明确测试通过准则
-4、明确项目组成员及职责
-5、明确测试环境和测试工具</t>
-  </si>
-  <si>
-    <t>编写测试方案</t>
-  </si>
-  <si>
-    <t>2019.08.31-2019.09.01</t>
-  </si>
-  <si>
-    <t>测试经理：卢茜君
-测试人员</t>
-  </si>
-  <si>
-    <t>1、明确测试开展方式
-4、编写完整的测试用例
-5、明确测试环境和测试工具</t>
-  </si>
-  <si>
-    <t>阶段文档：测试计划、测试方案</t>
-  </si>
-  <si>
-    <t>代码评审</t>
-  </si>
-  <si>
-    <t>2019.08.30-2019.09.06</t>
-  </si>
-  <si>
-    <t>开发人员</t>
-  </si>
-  <si>
-    <t>开发人员对团队代码进行检查</t>
-  </si>
-  <si>
-    <t>2019.09.02</t>
-  </si>
-  <si>
-    <t>编码负责人：侯添久
-测试负责人：卢茜君</t>
-  </si>
-  <si>
-    <t>搭建测试环境</t>
-  </si>
-  <si>
-    <t>单元测试</t>
-  </si>
-  <si>
-    <t>2019.09.03-2019.09.05</t>
-  </si>
-  <si>
-    <t>测试负责人：卢茜君
-测试人员</t>
-  </si>
-  <si>
-    <t>1、对于各功能模块进行单元测对于各功能模块进行单元测试
-2、记录测试结果及缺陷情况
-3、将缺陷反馈到负责人处并由负责人安排开发人员修复</t>
-  </si>
-  <si>
-    <t>集成测试</t>
-  </si>
-  <si>
-    <t>1、组合已进行过单元测试的模块进行集成测试
-2、记录测试结果及缺陷情况
-3、将缺陷反馈到负责人处并由负责人安排开发人员修复</t>
-  </si>
-  <si>
-    <t>系统测试</t>
-  </si>
-  <si>
-    <t>2019.09.06-2019.09.07</t>
-  </si>
-  <si>
-    <t>项目经理
-需求经理
-测试经理
-开发人员
-测试人员</t>
-  </si>
-  <si>
-    <t>1、在仿真环境下对系统及依赖环境进行测试
-2、记录测试结果及缺陷情况
-3、将缺陷反馈到负责人处并由负责人安排开发人员修复</t>
-  </si>
-  <si>
-    <t>阶段文档：测试报告、缺陷报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑需求的可行性，必要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/08/30-2019/09/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统的架构设计以及评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于用户模块，文件服务模块接口制定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于用户模块，文件服务模块功能的编码实现并进行单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助测试人员进行接口的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1730,7 +1620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1924,20 +1814,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1949,7 +1833,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2014,6 +1901,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2101,6 +2000,63 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2113,131 +2069,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2559,27 +2398,27 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="115.5" customWidth="1"/>
+    <col min="1" max="1" width="115.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="148" customHeight="1">
+    <row r="1" spans="1:1" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="65" customHeight="1">
+    <row r="2" spans="1:1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="48" customHeight="1">
+    <row r="3" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34">
+    <row r="4" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2594,35 +2433,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888914A-0887-C84A-ABDA-E01C184CA597}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="67" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView topLeftCell="B19" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" style="7" customWidth="1"/>
-    <col min="7" max="8" width="31.1640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="7" customWidth="1"/>
+    <col min="4" max="5" width="12.1796875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="35.1796875" style="7" customWidth="1"/>
+    <col min="7" max="8" width="31.1796875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" customHeight="1" thickBot="1">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2651,83 +2490,83 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="41" customHeight="1">
-      <c r="A3" s="80" t="s">
+    <row r="3" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="41" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="93"/>
-    </row>
-    <row r="5" spans="1:9" ht="41" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="93"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="94"/>
-    </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1">
-      <c r="A7" s="74" t="s">
+    <row r="4" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="80"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="92"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="81"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="93"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
-    </row>
-    <row r="8" spans="1:9" ht="51">
-      <c r="A8" s="68" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+    </row>
+    <row r="8" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="71" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2736,56 +2575,56 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="94" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="69"/>
+    <row r="9" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="97"/>
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-    </row>
-    <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="69"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="68"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="97"/>
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="64"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="7" t="s">
         <v>85</v>
       </c>
@@ -2793,20 +2632,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="69"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="97"/>
       <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="64"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="7" t="s">
         <v>86</v>
       </c>
@@ -2814,39 +2653,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" ht="136">
-      <c r="A13" s="64" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="68" t="s">
         <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -2856,18 +2695,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="70" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="64"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="7" t="s">
         <v>87</v>
       </c>
@@ -2875,16 +2714,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
+    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="64"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="7" t="s">
         <v>88</v>
       </c>
@@ -2892,75 +2731,75 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="68">
-      <c r="A16" s="64"/>
-      <c r="B16" s="70" t="s">
+    <row r="16" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="68" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64" t="s">
+      <c r="G16" s="72"/>
+      <c r="H16" s="72" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="64"/>
-      <c r="B17" s="70"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="102">
-      <c r="A18" s="64"/>
+    <row r="18" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="72"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
       <c r="I18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="64"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="72"/>
       <c r="B19" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="64"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="7" t="s">
         <v>66</v>
       </c>
@@ -2968,20 +2807,20 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="34">
-      <c r="A20" s="64"/>
+    <row r="20" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="72"/>
       <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="64"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="7" t="s">
         <v>25</v>
       </c>
@@ -2989,20 +2828,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-    </row>
-    <row r="22" spans="1:9" ht="34">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>59</v>
       </c>
@@ -3012,58 +2851,58 @@
       <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="72" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="68">
+    <row r="23" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
       <c r="I23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="64" t="s">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3072,83 +2911,83 @@
       <c r="C25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64" t="s">
+      <c r="G25" s="72"/>
+      <c r="H25" s="72" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" customHeight="1">
-      <c r="A26" s="64"/>
+    <row r="26" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="72"/>
       <c r="B26" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="70" t="s">
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="68" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="70"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="70"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="71" t="s">
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="68"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="68"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="64" t="s">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="72" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3157,59 +2996,60 @@
       <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="64"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="64" t="s">
+      <c r="I30" s="72" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="64"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="72"/>
       <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="64"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="64"/>
+      <c r="I31" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A20"/>
     <mergeCell ref="D13:D20"/>
     <mergeCell ref="E13:E20"/>
     <mergeCell ref="I30:I31"/>
@@ -3226,22 +3066,21 @@
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3252,20 +3091,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E050A6-F283-B644-B490-2BE7379117EF}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A13" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="10" customWidth="1"/>
-    <col min="3" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="10" customWidth="1"/>
+    <col min="3" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="17" thickBot="1">
+    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>95</v>
       </c>
@@ -3324,7 +3163,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="18" thickTop="1" thickBot="1">
+    <row r="2" spans="1:44" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -3390,11 +3229,11 @@
       </c>
       <c r="V2" s="13"/>
     </row>
-    <row r="3" spans="1:44">
-      <c r="A3" s="99" t="s">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A3" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="105" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="15"/>
@@ -3405,9 +3244,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
-      <c r="A4" s="100"/>
-      <c r="B4" s="103"/>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A4" s="103"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="16"/>
       <c r="I4" s="11"/>
       <c r="P4" s="11"/>
@@ -3416,9 +3255,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
-      <c r="A5" s="100"/>
-      <c r="B5" s="103"/>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A5" s="103"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="17"/>
       <c r="I5" s="11"/>
       <c r="P5" s="11"/>
@@ -3427,9 +3266,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
-      <c r="A6" s="100"/>
-      <c r="B6" s="103"/>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A6" s="103"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="18"/>
       <c r="I6" s="11"/>
       <c r="P6" s="11"/>
@@ -3438,9 +3277,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="17" thickBot="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="104"/>
+    <row r="7" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="104"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="19"/>
       <c r="I7" s="11"/>
       <c r="P7" s="11"/>
@@ -3449,7 +3288,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="8" spans="1:44" s="22" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>109</v>
       </c>
@@ -3457,11 +3296,11 @@
       <c r="I8" s="23"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:44">
-      <c r="A9" s="95" t="s">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A9" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="110" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="15"/>
@@ -3469,25 +3308,25 @@
       <c r="I9" s="11"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:44">
-      <c r="A10" s="97"/>
-      <c r="B10" s="108"/>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A10" s="100"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="I10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:44">
-      <c r="A11" s="97"/>
-      <c r="B11" s="108"/>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A11" s="100"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="I11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:44">
-      <c r="A12" s="97"/>
-      <c r="B12" s="108" t="s">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A12" s="100"/>
+      <c r="B12" s="111" t="s">
         <v>112</v>
       </c>
       <c r="C12" s="15"/>
@@ -3496,35 +3335,35 @@
       <c r="I12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:44">
-      <c r="A13" s="97"/>
-      <c r="B13" s="108"/>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A13" s="100"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="I13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:44">
-      <c r="A14" s="97"/>
-      <c r="B14" s="108"/>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A14" s="100"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="I14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:44">
-      <c r="A15" s="97"/>
-      <c r="B15" s="108"/>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A15" s="100"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="I15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:44" s="24" customFormat="1">
-      <c r="A16" s="105"/>
+    <row r="16" spans="1:44" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="108"/>
       <c r="B16" s="47" t="s">
         <v>113</v>
       </c>
@@ -3571,8 +3410,8 @@
       <c r="AQ16"/>
       <c r="AR16"/>
     </row>
-    <row r="17" spans="1:17" s="27" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="106"/>
+    <row r="17" spans="1:17" s="27" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="109"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -3582,7 +3421,7 @@
       <c r="I17" s="28"/>
       <c r="P17" s="28"/>
     </row>
-    <row r="18" spans="1:17" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="18" spans="1:17" s="22" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>117</v>
       </c>
@@ -3596,11 +3435,11 @@
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="95" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="110" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="18"/>
@@ -3609,41 +3448,41 @@
       <c r="I19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="97"/>
-      <c r="B20" s="108"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="100"/>
+      <c r="B20" s="111"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="I20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="97"/>
-      <c r="B21" s="108"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="100"/>
+      <c r="B21" s="111"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="I21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="97"/>
-      <c r="B22" s="109" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="100"/>
+      <c r="B22" s="112" t="s">
         <v>120</v>
       </c>
       <c r="F22" s="18"/>
       <c r="I22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="97"/>
-      <c r="B23" s="109"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="100"/>
+      <c r="B23" s="112"/>
       <c r="F23" s="17"/>
       <c r="I23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="97"/>
-      <c r="B24" s="109" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="100"/>
+      <c r="B24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="G24" s="15"/>
@@ -3656,9 +3495,9 @@
       <c r="N24" s="15"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="97"/>
-      <c r="B25" s="109"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="100"/>
+      <c r="B25" s="112"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="31"/>
@@ -3669,9 +3508,9 @@
       <c r="N25" s="18"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="97"/>
-      <c r="B26" s="109"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="100"/>
+      <c r="B26" s="112"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="32"/>
@@ -3682,9 +3521,9 @@
       <c r="N26" s="17"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="97"/>
-      <c r="B27" s="109"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="100"/>
+      <c r="B27" s="112"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="33"/>
@@ -3695,9 +3534,9 @@
       <c r="N27" s="16"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="97"/>
-      <c r="B28" s="109"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="100"/>
+      <c r="B28" s="112"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="34"/>
@@ -3708,8 +3547,8 @@
       <c r="N28" s="19"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:17" s="24" customFormat="1" ht="17">
-      <c r="A29" s="105"/>
+    <row r="29" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="108"/>
       <c r="B29" s="35" t="s">
         <v>122</v>
       </c>
@@ -3719,8 +3558,8 @@
       <c r="I29" s="25"/>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:17" ht="17" thickBot="1">
-      <c r="A30" s="96"/>
+    <row r="30" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="99"/>
       <c r="B30" s="36" t="s">
         <v>123</v>
       </c>
@@ -3729,7 +3568,7 @@
       <c r="I30" s="33"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="1:17" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="31" spans="1:17" s="22" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>124</v>
       </c>
@@ -3744,8 +3583,8 @@
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="95" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="98" t="s">
         <v>125</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -3755,8 +3594,8 @@
       <c r="J32" s="16"/>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="17" thickBot="1">
-      <c r="A33" s="96"/>
+    <row r="33" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="99"/>
       <c r="B33" s="36" t="s">
         <v>127</v>
       </c>
@@ -3768,7 +3607,7 @@
       <c r="O33" s="16"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:21" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="34" spans="1:21" s="22" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
         <v>128</v>
       </c>
@@ -3784,8 +3623,8 @@
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
     </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="95" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="98" t="s">
         <v>129</v>
       </c>
       <c r="B35" s="38" t="s">
@@ -3794,23 +3633,23 @@
       <c r="I35" s="11"/>
       <c r="P35" s="39"/>
     </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="97"/>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="100"/>
       <c r="B36" s="40" t="s">
         <v>131</v>
       </c>
       <c r="I36" s="11"/>
       <c r="P36" s="31"/>
     </row>
-    <row r="37" spans="1:21" ht="17" thickBot="1">
-      <c r="A37" s="96"/>
+    <row r="37" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="99"/>
       <c r="B37" s="36" t="s">
         <v>132</v>
       </c>
       <c r="I37" s="11"/>
       <c r="P37" s="31"/>
     </row>
-    <row r="38" spans="1:21" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="38" spans="1:21" s="22" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>133</v>
       </c>
@@ -3825,8 +3664,8 @@
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="95" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="98" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="38" t="s">
@@ -3840,8 +3679,8 @@
       <c r="T39" s="41"/>
       <c r="U39" s="41"/>
     </row>
-    <row r="40" spans="1:21" s="43" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="98"/>
+    <row r="40" spans="1:21" s="43" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="101"/>
       <c r="B40" s="42" t="s">
         <v>136</v>
       </c>
@@ -3875,26 +3714,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96A95C4-DA44-6A4D-ADF6-4DC13FEF3A74}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A2" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="24.6640625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="48"/>
+    <col min="1" max="3" width="24.6328125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickTop="1">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
@@ -3908,8 +3747,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.75" customHeight="1">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="116" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="52" t="s">
@@ -3918,22 +3757,22 @@
       <c r="C3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="122" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.75" customHeight="1">
-      <c r="A4" s="114"/>
+    <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="117"/>
       <c r="B4" s="53" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="120"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="115"/>
+      <c r="D4" s="123"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="118"/>
       <c r="B5" s="54" t="s">
         <v>50</v>
       </c>
@@ -3944,16 +3783,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="121" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="123"/>
-    </row>
-    <row r="7" spans="1:4" ht="36">
-      <c r="A7" s="113" t="s">
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+    </row>
+    <row r="7" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="116" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="56" t="s">
@@ -3966,8 +3805,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24">
-      <c r="A8" s="114"/>
+    <row r="8" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="117"/>
       <c r="B8" s="58" t="s">
         <v>141</v>
       </c>
@@ -3978,8 +3817,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="114"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="117"/>
       <c r="B9" s="58" t="s">
         <v>144</v>
       </c>
@@ -3990,8 +3829,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24">
-      <c r="A10" s="114"/>
+    <row r="10" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="117"/>
       <c r="B10" s="58" t="s">
         <v>147</v>
       </c>
@@ -4002,8 +3841,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24">
-      <c r="A11" s="115"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="118"/>
       <c r="B11" s="60" t="s">
         <v>150</v>
       </c>
@@ -4014,15 +3853,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="121" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="126"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>59</v>
       </c>
@@ -4036,13 +3875,13 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="110" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4063,206 +3902,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDF951B-D4BC-DF45-B0A3-BDA166F00BD1}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="134" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="134" t="s">
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="136"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="130" t="s">
+      <c r="H1" s="131"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="137" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="142" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="143"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="128"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="145" t="s">
+      <c r="H2" s="139"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="131">
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="144">
         <v>43705</v>
       </c>
-      <c r="H4" s="147"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="130"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="130"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="145" t="s">
+      <c r="H4" s="145"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="132"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="131">
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="144">
         <v>43706</v>
       </c>
-      <c r="H6" s="131"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="130"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="130" t="s">
+      <c r="H6" s="144"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="128" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="131" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="131"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="130" t="s">
+      <c r="H9" s="144"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="132"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="128" t="s">
+      <c r="B12" s="132"/>
+      <c r="C12" s="141" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128" t="s">
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="128"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="124" t="s">
+      <c r="H12" s="141"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="132"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="128" t="s">
+      <c r="B14" s="147"/>
+      <c r="C14" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="129">
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="150">
         <v>43716</v>
       </c>
-      <c r="H14" s="128"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128" t="s">
+      <c r="H14" s="141"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="148"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="129">
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="150">
         <v>43718</v>
       </c>
-      <c r="H15" s="128"/>
+      <c r="H15" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="C9:F11"/>
+    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:H13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4273,259 +4123,183 @@
     <mergeCell ref="G4:H5"/>
     <mergeCell ref="C6:F8"/>
     <mergeCell ref="G6:H8"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="C9:F11"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A6A213-6046-FB40-BF68-BE1C2BBB9950}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D656CA0-F1E1-4B2B-82F4-06ED5990B363}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="31" style="64" customWidth="1"/>
+    <col min="3" max="3" width="29" style="64" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="151" customFormat="1" ht="24">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150"/>
-    </row>
-    <row r="2" spans="1:5" s="151" customFormat="1">
-      <c r="A2" s="152" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="152" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="152" t="s">
+      <c r="C1" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="152" t="s">
+      <c r="D1" s="65" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="151" customFormat="1">
-      <c r="A3" s="153" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="154" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="66">
+        <v>43706</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="155" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="152">
+        <v>43706</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="68"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="68"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="72"/>
+      <c r="B6" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="152">
+        <v>43706</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="72"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="68"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D8" s="68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="68"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="68"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="68"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="68"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="151" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="158" customFormat="1" ht="102">
-      <c r="A4" s="153"/>
-      <c r="B4" s="154" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="153" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="156" t="s">
+      <c r="D13" s="68"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="68"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="B15" s="64" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="161" customFormat="1" ht="68">
-      <c r="A5" s="153"/>
-      <c r="B5" s="159" t="s">
+      <c r="C15" s="66">
+        <v>43715</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="156" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="160" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="151" customFormat="1">
-      <c r="A6" s="162" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-    </row>
-    <row r="7" spans="1:5" ht="80">
-      <c r="A7" s="163" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="159" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="156" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="164" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51">
-      <c r="A8" s="163"/>
-      <c r="B8" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="156" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="165" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="162" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="163" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="159" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="166" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="159" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="166" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34">
-      <c r="A11" s="163"/>
-      <c r="B11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="167" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="85">
-      <c r="A12" s="163"/>
-      <c r="B12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="156" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="167" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="68">
-      <c r="A13" s="163"/>
-      <c r="B13" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="156" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="167" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="85">
-      <c r="A14" s="163"/>
-      <c r="B14" s="156" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="156" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="167" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="168" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:E9"/>
+  <mergeCells count="10">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>